--- a/criardataset/ojb/Yochanan II.xlsx
+++ b/criardataset/ojb/Yochanan II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Livro</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Ibn</t>
   </si>
   <si>
+    <t>Onkelos</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
     <t>Exodus</t>
   </si>
   <si>
@@ -74,6 +80,18 @@
   </si>
   <si>
     <t>['ולא קם נביא עוד בישראל כמשה, no other subsequent prophet ever attained the lofty spiritual stature of Moses. This explained the statement by our sages that no prophet is allowed to innovate something in the Torah since Moses had died. (&lt;a class ="refLink" href="/Shabbat.104" data-ref="Shabbat 104"&gt;Shabbat 104&lt;/a&gt;) This statement also explains the rule that no Rabbinical assembly may invalidate a decree by another such Rabbinical assembly which had preceded it, unless it could be proven to be more competent and consisted of a greater number than the Rabbinical assembly which had originated said decree. (&lt;a class ="refLink" href="/Megillah.20" data-ref="Megillah 20"&gt;Megillah 20&lt;/a&gt;)', '\'אשר ידעו ה, whom G’d had endowed with so much knowledge by turning His face to him. We have been told in &lt;a class ="refLink" href="/I_Samuel.10.6" data-ref="I Samuel 10:6"&gt;Samuel I 10,6&lt;/a&gt; that receiving even a small measure of prophetic insight makes the recipient an איש אחר, a different person. This is why the prophet &lt;a class ="refLink" href="/Amos.2.11" data-ref="Amos 2:11"&gt;Amos 2,11&lt;/a&gt; when referring to the deeds of loving kindness performed by G’d for the people lists the fact that G’d gave many Israelites prophetic insights. The people, during Amos’ time, instead of availing themselves of the spiritual inspiration thus accessible, forbade these prophets to impart their visions, etc., reversing and frustrating G’d’s purpose. Seeing that all of G’d’s activity stems exclusively from His own personal knowledge (cannot be evaluated properly by His creatures, seeing that they are “only” His creature) the Torah records G’d as saying that  אשר ידעו ה\' פנים אל פנים, that in His communications with Moses and granting him insights into His ways, He did so exclusively for Moses’ benefit. This expression ידע appears repeatedly in Scriptures in this sense of endowing someone with insights. One example is &lt;a class ="refLink" href="/Psalms.144.3" data-ref="Psalms 144:3"&gt;Psalms 144,3&lt;/a&gt; מה אדם ותדעהו, “what did man do that You should take the trouble to grant him such insights?” Another such example is found in &lt;a class ="refLink" href="/Exodus.33.17" data-ref="Exodus 33:17"&gt;Exodus 33,17&lt;/a&gt; ואדעך בשם, “I granted you some insights about My essence, by making you familiar with some of My attributes.” [my translation. Ed.] Compare also &lt;a class ="refLink" href="/Exodus.2.25" data-ref="Exodus 2:25"&gt;Exodus 2,25&lt;/a&gt; Psalms1,6 and numerous other examples. [If I do not err, the author feels that seeing that G’d’s omniscience is axiomatic in Judaism, such phrases as the ones quoted cannot simply mean “G’d knew,” for there would be no point in the Torah stating the obvious. They must therefore imply that G’d communicated some of His knowledge. In &lt;a class ="refLink" href="/Exodus.2.25" data-ref="Exodus 2:25"&gt;Exodus 2,25&lt;/a&gt; the Torah meant to tell us that the Jewish people would shortly become aware that G’d knew all about their condition and would do something about it, something that would also raise their spiritual level as a result. Ed.]', 'פנים אל פנים, while in full possession of his faculties.']</t>
+  </si>
+  <si>
+    <t>“Go, gather the elders of Yisrael, and say to them, ‘Adonoy, the God of your fathers appeared [&lt;b&gt;became revealed&lt;/b&gt;] to me—the God of Avraham, Yitzchok and Yaakov—saying, “I have indeed been mindful of you, regarding that which is being done to you in Egypt.</t>
+  </si>
+  <si>
+    <t>And there has not ever arisen a prophet within Yisroel like Moshe, whom Adonoy knew [&lt;b&gt;appeared to&lt;/b&gt;] face-to-face.</t>
+  </si>
+  <si>
+    <t>Go, and assemble the elders of Israel, and say to them, The Lord God of your fathers hath appeared unto me, the God of Abraham, Izhak, and Jakob, saying, Remembering, I have remembered you, and the injury that is done you in Mizraim;</t>
+  </si>
+  <si>
+    <t>But no prophet hath again risen in Israel like unto Mosheh, because the Word of the Lord had known him to speak with him word for word,</t>
   </si>
 </sst>
 </file>
@@ -431,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,10 +483,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -477,21 +501,27 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -500,19 +530,25 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
